--- a/Results/Electricity_use_electrolyzer_share.xlsx
+++ b/Results/Electricity_use_electrolyzer_share.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buett\Documents\Studium\medea\data\results\20230104\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{049E2AD6-1B5E-400C-BD04-C043C46B2B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FFE15D-D715-42C7-8B70-C5F89A1F3F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4563EA58-2870-41C2-81C1-883FBA0D382B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Electrolyzer Use</t>
   </si>
@@ -54,6 +54,39 @@
   </si>
   <si>
     <t>min h2</t>
+  </si>
+  <si>
+    <t>Electricity fed into the grid</t>
+  </si>
+  <si>
+    <t>el_</t>
+  </si>
+  <si>
+    <t>el_wind_constraint_</t>
+  </si>
+  <si>
+    <t>el_windpv_constraint_</t>
+  </si>
+  <si>
+    <t>h_2_</t>
+  </si>
+  <si>
+    <t>h_2_wind_constraint_</t>
+  </si>
+  <si>
+    <t>h_2_windpv_constraint_</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>_wind_constraint_</t>
+  </si>
+  <si>
+    <t>_windpv_constraint_</t>
+  </si>
+  <si>
+    <t>Diff el - h2 share (%)</t>
   </si>
 </sst>
 </file>
@@ -405,20 +438,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11650572-24BE-4060-B9FB-1CB775D12348}">
-  <dimension ref="B1:Q17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="K1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>30</v>
+      </c>
+      <c r="C1">
+        <v>40</v>
+      </c>
+      <c r="D1">
+        <v>50</v>
+      </c>
+      <c r="E1">
+        <v>60</v>
+      </c>
+      <c r="F1">
+        <v>70</v>
+      </c>
+      <c r="G1">
+        <v>80</v>
+      </c>
+      <c r="H1">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K1">
+        <v>30</v>
+      </c>
+      <c r="L1">
+        <v>40</v>
+      </c>
+      <c r="M1">
+        <v>50</v>
+      </c>
+      <c r="N1">
+        <v>60</v>
+      </c>
+      <c r="O1">
+        <v>70</v>
+      </c>
+      <c r="P1">
+        <v>80</v>
+      </c>
+      <c r="Q1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2">
         <v>1671141.6016098247</v>
       </c>
@@ -439,6 +520,9 @@
       </c>
       <c r="H2">
         <v>1680474.8492940636</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
       </c>
       <c r="K2">
         <f>B12/B2</f>
@@ -469,7 +553,10 @@
         <v>0.25081742710510641</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3">
         <v>1524363.3851145913</v>
       </c>
@@ -490,6 +577,9 @@
       </c>
       <c r="H3">
         <v>1563721.9083280871</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K7" si="1">B13/B3</f>
@@ -520,7 +610,10 @@
         <v>0.26085775443753106</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
       <c r="B4">
         <v>1524760.2481951483</v>
       </c>
@@ -541,6 +634,9 @@
       </c>
       <c r="H4">
         <v>1580962.5951479285</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
@@ -571,7 +667,10 @@
         <v>0.23502602473749531</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
       <c r="B5">
         <v>1644394.176695707</v>
       </c>
@@ -592,6 +691,9 @@
       </c>
       <c r="H5">
         <v>1658753.3578681906</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
@@ -622,7 +724,10 @@
         <v>0.27647093324583683</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
       <c r="B6">
         <v>1501134.2228186412</v>
       </c>
@@ -643,6 +748,9 @@
       </c>
       <c r="H6">
         <v>1543771.466513911</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
@@ -673,7 +781,10 @@
         <v>0.29159007617301386</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
       <c r="B7">
         <v>1501134.2228388882</v>
       </c>
@@ -694,6 +805,9 @@
       </c>
       <c r="H7">
         <v>1555985.5435458061</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
@@ -724,7 +838,7 @@
         <v>0.27136254658780551</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="J9" t="s">
         <v>2</v>
       </c>
@@ -733,7 +847,7 @@
         <v>0.29159009321160378</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -745,7 +859,28 @@
         <v>0.16801432378657977</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>80</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
       <c r="J11" t="s">
         <v>4</v>
       </c>
@@ -754,7 +889,10 @@
         <v>0.26085775443753106</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
       <c r="B12">
         <v>421313.10220231308</v>
       </c>
@@ -784,7 +922,10 @@
         <v>0.19624321812053286</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
       <c r="B13">
         <v>256591.9458163142</v>
       </c>
@@ -807,7 +948,10 @@
         <v>407908.98557123559</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
       <c r="B14">
         <v>256181.56203716539</v>
       </c>
@@ -829,8 +973,14 @@
       <c r="H14">
         <v>371567.35399629181</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
       <c r="B15">
         <v>459556.82371055242</v>
       </c>
@@ -852,8 +1002,42 @@
       <c r="H15">
         <v>458597.08887448418</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <f>(K2-K5)*100</f>
+        <v>-2.7357820246477815</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15:Q15" si="2">(L2-L5)*100</f>
+        <v>-2.5653506186651684</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>-2.5653506134928672</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>-2.5653506132747363</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>-2.5653506155230934</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>-2.5653506158238915</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>-2.5653506140730418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
       <c r="B16">
         <v>294587.41071931878</v>
       </c>
@@ -875,8 +1059,42 @@
       <c r="H16">
         <v>450148.43951451662</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:Q17" si="3">(K3-K6)*100</f>
+        <v>-2.7915935846914959</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>-2.6013828863297035</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>-1.7499051758365498</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>-2.8216238170093</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>-3.0732338631589142</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>-3.0732338890318012</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>-3.0732321735482793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
       <c r="B17">
         <v>294587.4107207685</v>
       </c>
@@ -897,6 +1115,37 @@
       </c>
       <c r="H17">
         <v>422236.19955040072</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>-2.822889433395309</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>-2.815340358366794</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>-2.718698800948685</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>-3.5453826263910777</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>-3.6137991929131696</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>-3.6108687690370704</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>-3.6336521850310195</v>
       </c>
     </row>
   </sheetData>
